--- a/data/trans_orig/CANT_TABACO-Edad-trans_orig.xlsx
+++ b/data/trans_orig/CANT_TABACO-Edad-trans_orig.xlsx
@@ -531,7 +531,7 @@
     <row r="1">
       <c r="A1" s="1" t="inlineStr">
         <is>
-          <t>Cantidad media de tabaco consumido al día</t>
+          <t>Cantidad media de tabaco consumido al día (tasa de respuesta: 99,75%)</t>
         </is>
       </c>
       <c r="B1" s="2" t="n"/>

--- a/data/trans_orig/CANT_TABACO-Edad-trans_orig.xlsx
+++ b/data/trans_orig/CANT_TABACO-Edad-trans_orig.xlsx
@@ -632,7 +632,7 @@
       </c>
       <c r="C4" s="2" t="inlineStr">
         <is>
-          <t>1,29</t>
+          <t>0,95</t>
         </is>
       </c>
       <c r="D4" s="2" t="inlineStr">
@@ -647,7 +647,7 @@
       </c>
       <c r="F4" s="2" t="inlineStr">
         <is>
-          <t>1,39</t>
+          <t>1,13</t>
         </is>
       </c>
       <c r="G4" s="2" t="inlineStr">
@@ -662,7 +662,7 @@
       </c>
       <c r="I4" s="2" t="inlineStr">
         <is>
-          <t>1,34</t>
+          <t>1,04</t>
         </is>
       </c>
       <c r="J4" s="2" t="inlineStr">
@@ -685,12 +685,12 @@
       </c>
       <c r="C5" s="2" t="inlineStr">
         <is>
-          <t>0,71; 2,51</t>
+          <t>0,54; 1,72</t>
         </is>
       </c>
       <c r="D5" s="2" t="inlineStr">
         <is>
-          <t>1,01; 2,91</t>
+          <t>0,98; 2,74</t>
         </is>
       </c>
       <c r="E5" s="2" t="inlineStr">
@@ -700,12 +700,12 @@
       </c>
       <c r="F5" s="2" t="inlineStr">
         <is>
-          <t>0,79; 2,45</t>
+          <t>0,57; 2,46</t>
         </is>
       </c>
       <c r="G5" s="2" t="inlineStr">
         <is>
-          <t>0,73; 2,57</t>
+          <t>0,74; 2,6</t>
         </is>
       </c>
       <c r="H5" s="2" t="inlineStr">
@@ -715,12 +715,12 @@
       </c>
       <c r="I5" s="2" t="inlineStr">
         <is>
-          <t>0,89; 2,01</t>
+          <t>0,64; 1,67</t>
         </is>
       </c>
       <c r="J5" s="2" t="inlineStr">
         <is>
-          <t>0,98; 2,35</t>
+          <t>0,99; 2,28</t>
         </is>
       </c>
       <c r="K5" s="2" t="inlineStr">
@@ -742,7 +742,7 @@
       </c>
       <c r="C6" s="2" t="inlineStr">
         <is>
-          <t>1,45</t>
+          <t>1,3</t>
         </is>
       </c>
       <c r="D6" s="2" t="inlineStr">
@@ -757,7 +757,7 @@
       </c>
       <c r="F6" s="2" t="inlineStr">
         <is>
-          <t>1,32</t>
+          <t>0,92</t>
         </is>
       </c>
       <c r="G6" s="2" t="inlineStr">
@@ -772,7 +772,7 @@
       </c>
       <c r="I6" s="2" t="inlineStr">
         <is>
-          <t>1,38</t>
+          <t>1,11</t>
         </is>
       </c>
       <c r="J6" s="2" t="inlineStr">
@@ -795,12 +795,12 @@
       </c>
       <c r="C7" s="2" t="inlineStr">
         <is>
-          <t>0,94; 2,18</t>
+          <t>0,8; 2,28</t>
         </is>
       </c>
       <c r="D7" s="2" t="inlineStr">
         <is>
-          <t>2,76; 5,22</t>
+          <t>2,82; 5,33</t>
         </is>
       </c>
       <c r="E7" s="2" t="inlineStr">
@@ -810,12 +810,12 @@
       </c>
       <c r="F7" s="2" t="inlineStr">
         <is>
-          <t>0,79; 2,21</t>
+          <t>0,54; 1,5</t>
         </is>
       </c>
       <c r="G7" s="2" t="inlineStr">
         <is>
-          <t>0,82; 2,53</t>
+          <t>0,82; 2,55</t>
         </is>
       </c>
       <c r="H7" s="2" t="inlineStr">
@@ -825,12 +825,12 @@
       </c>
       <c r="I7" s="2" t="inlineStr">
         <is>
-          <t>1,01; 1,91</t>
+          <t>0,77; 1,61</t>
         </is>
       </c>
       <c r="J7" s="2" t="inlineStr">
         <is>
-          <t>1,69; 3,35</t>
+          <t>1,73; 3,43</t>
         </is>
       </c>
       <c r="K7" s="2" t="inlineStr">
@@ -852,7 +852,7 @@
       </c>
       <c r="C8" s="2" t="inlineStr">
         <is>
-          <t>2,96</t>
+          <t>3,13</t>
         </is>
       </c>
       <c r="D8" s="2" t="inlineStr">
@@ -867,7 +867,7 @@
       </c>
       <c r="F8" s="2" t="inlineStr">
         <is>
-          <t>2,06</t>
+          <t>1,75</t>
         </is>
       </c>
       <c r="G8" s="2" t="inlineStr">
@@ -882,7 +882,7 @@
       </c>
       <c r="I8" s="2" t="inlineStr">
         <is>
-          <t>2,49</t>
+          <t>2,45</t>
         </is>
       </c>
       <c r="J8" s="2" t="inlineStr">
@@ -905,12 +905,12 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>2,29; 3,95</t>
+          <t>2,38; 4,1</t>
         </is>
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>2,84; 4,9</t>
+          <t>2,85; 4,94</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
@@ -920,12 +920,12 @@
       </c>
       <c r="F9" s="2" t="inlineStr">
         <is>
-          <t>1,57; 2,7</t>
+          <t>1,26; 2,36</t>
         </is>
       </c>
       <c r="G9" s="2" t="inlineStr">
         <is>
-          <t>1,99; 2,89</t>
+          <t>1,97; 2,97</t>
         </is>
       </c>
       <c r="H9" s="2" t="inlineStr">
@@ -935,12 +935,12 @@
       </c>
       <c r="I9" s="2" t="inlineStr">
         <is>
-          <t>2,02; 2,95</t>
+          <t>1,98; 3,01</t>
         </is>
       </c>
       <c r="J9" s="2" t="inlineStr">
         <is>
-          <t>2,48; 3,59</t>
+          <t>2,58; 3,7</t>
         </is>
       </c>
       <c r="K9" s="2" t="inlineStr">
@@ -962,7 +962,7 @@
       </c>
       <c r="C10" s="2" t="inlineStr">
         <is>
-          <t>3,14</t>
+          <t>3,48</t>
         </is>
       </c>
       <c r="D10" s="2" t="inlineStr">
@@ -977,7 +977,7 @@
       </c>
       <c r="F10" s="2" t="inlineStr">
         <is>
-          <t>2,01</t>
+          <t>1,91</t>
         </is>
       </c>
       <c r="G10" s="2" t="inlineStr">
@@ -992,7 +992,7 @@
       </c>
       <c r="I10" s="2" t="inlineStr">
         <is>
-          <t>2,57</t>
+          <t>2,7</t>
         </is>
       </c>
       <c r="J10" s="2" t="inlineStr">
@@ -1015,12 +1015,12 @@
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
-          <t>2,57; 3,94</t>
+          <t>2,64; 4,43</t>
         </is>
       </c>
       <c r="D11" s="2" t="inlineStr">
         <is>
-          <t>0,77; 3,99</t>
+          <t>0,83; 3,96</t>
         </is>
       </c>
       <c r="E11" s="2" t="inlineStr">
@@ -1030,12 +1030,12 @@
       </c>
       <c r="F11" s="2" t="inlineStr">
         <is>
-          <t>1,59; 2,5</t>
+          <t>1,48; 2,48</t>
         </is>
       </c>
       <c r="G11" s="2" t="inlineStr">
         <is>
-          <t>2,15; 3,05</t>
+          <t>2,14; 3,0</t>
         </is>
       </c>
       <c r="H11" s="2" t="inlineStr">
@@ -1045,12 +1045,12 @@
       </c>
       <c r="I11" s="2" t="inlineStr">
         <is>
-          <t>2,19; 3,0</t>
+          <t>2,21; 3,26</t>
         </is>
       </c>
       <c r="J11" s="2" t="inlineStr">
         <is>
-          <t>1,14; 3,26</t>
+          <t>1,05; 3,27</t>
         </is>
       </c>
       <c r="K11" s="2" t="inlineStr">
@@ -1072,7 +1072,7 @@
       </c>
       <c r="C12" s="2" t="inlineStr">
         <is>
-          <t>2,57</t>
+          <t>2,66</t>
         </is>
       </c>
       <c r="D12" s="2" t="inlineStr">
@@ -1087,7 +1087,7 @@
       </c>
       <c r="F12" s="2" t="inlineStr">
         <is>
-          <t>2,09</t>
+          <t>1,88</t>
         </is>
       </c>
       <c r="G12" s="2" t="inlineStr">
@@ -1102,7 +1102,7 @@
       </c>
       <c r="I12" s="2" t="inlineStr">
         <is>
-          <t>2,31</t>
+          <t>2,25</t>
         </is>
       </c>
       <c r="J12" s="2" t="inlineStr">
@@ -1125,12 +1125,12 @@
       </c>
       <c r="C13" s="2" t="inlineStr">
         <is>
-          <t>1,94; 3,35</t>
+          <t>1,99; 3,67</t>
         </is>
       </c>
       <c r="D13" s="2" t="inlineStr">
         <is>
-          <t>4,07; 5,86</t>
+          <t>4,14; 5,87</t>
         </is>
       </c>
       <c r="E13" s="2" t="inlineStr">
@@ -1140,12 +1140,12 @@
       </c>
       <c r="F13" s="2" t="inlineStr">
         <is>
-          <t>1,64; 2,75</t>
+          <t>1,32; 2,63</t>
         </is>
       </c>
       <c r="G13" s="2" t="inlineStr">
         <is>
-          <t>2,15; 3,09</t>
+          <t>2,17; 3,08</t>
         </is>
       </c>
       <c r="H13" s="2" t="inlineStr">
@@ -1155,12 +1155,12 @@
       </c>
       <c r="I13" s="2" t="inlineStr">
         <is>
-          <t>1,92; 2,76</t>
+          <t>1,84; 2,84</t>
         </is>
       </c>
       <c r="J13" s="2" t="inlineStr">
         <is>
-          <t>3,32; 4,32</t>
+          <t>3,28; 4,31</t>
         </is>
       </c>
       <c r="K13" s="2" t="inlineStr">
@@ -1182,7 +1182,7 @@
       </c>
       <c r="C14" s="2" t="inlineStr">
         <is>
-          <t>1,2</t>
+          <t>0,94</t>
         </is>
       </c>
       <c r="D14" s="2" t="inlineStr">
@@ -1197,7 +1197,7 @@
       </c>
       <c r="F14" s="2" t="inlineStr">
         <is>
-          <t>1,27</t>
+          <t>1,41</t>
         </is>
       </c>
       <c r="G14" s="2" t="inlineStr">
@@ -1212,7 +1212,7 @@
       </c>
       <c r="I14" s="2" t="inlineStr">
         <is>
-          <t>1,24</t>
+          <t>1,19</t>
         </is>
       </c>
       <c r="J14" s="2" t="inlineStr">
@@ -1235,12 +1235,12 @@
       </c>
       <c r="C15" s="2" t="inlineStr">
         <is>
-          <t>0,83; 1,75</t>
+          <t>0,63; 1,39</t>
         </is>
       </c>
       <c r="D15" s="2" t="inlineStr">
         <is>
-          <t>1,98; 4,13</t>
+          <t>1,93; 3,98</t>
         </is>
       </c>
       <c r="E15" s="2" t="inlineStr">
@@ -1250,12 +1250,12 @@
       </c>
       <c r="F15" s="2" t="inlineStr">
         <is>
-          <t>0,94; 1,73</t>
+          <t>0,99; 1,88</t>
         </is>
       </c>
       <c r="G15" s="2" t="inlineStr">
         <is>
-          <t>0,22; 1,57</t>
+          <t>0,2; 1,56</t>
         </is>
       </c>
       <c r="H15" s="2" t="inlineStr">
@@ -1265,12 +1265,12 @@
       </c>
       <c r="I15" s="2" t="inlineStr">
         <is>
-          <t>0,96; 1,56</t>
+          <t>0,92; 1,52</t>
         </is>
       </c>
       <c r="J15" s="2" t="inlineStr">
         <is>
-          <t>0,56; 2,22</t>
+          <t>0,57; 2,2</t>
         </is>
       </c>
       <c r="K15" s="2" t="inlineStr">
@@ -1292,7 +1292,7 @@
       </c>
       <c r="C16" s="2" t="inlineStr">
         <is>
-          <t>0,44</t>
+          <t>0,58</t>
         </is>
       </c>
       <c r="D16" s="2" t="inlineStr">
@@ -1307,7 +1307,7 @@
       </c>
       <c r="F16" s="2" t="inlineStr">
         <is>
-          <t>0,17</t>
+          <t>0,23</t>
         </is>
       </c>
       <c r="G16" s="2" t="inlineStr">
@@ -1322,7 +1322,7 @@
       </c>
       <c r="I16" s="2" t="inlineStr">
         <is>
-          <t>0,28</t>
+          <t>0,36</t>
         </is>
       </c>
       <c r="J16" s="2" t="inlineStr">
@@ -1345,12 +1345,12 @@
       </c>
       <c r="C17" s="2" t="inlineStr">
         <is>
-          <t>0,24; 0,82</t>
+          <t>0,33; 0,99</t>
         </is>
       </c>
       <c r="D17" s="2" t="inlineStr">
         <is>
-          <t>0,4; 1,42</t>
+          <t>0,39; 1,4</t>
         </is>
       </c>
       <c r="E17" s="2" t="inlineStr">
@@ -1360,12 +1360,12 @@
       </c>
       <c r="F17" s="2" t="inlineStr">
         <is>
-          <t>0,08; 0,37</t>
+          <t>0,08; 0,63</t>
         </is>
       </c>
       <c r="G17" s="2" t="inlineStr">
         <is>
-          <t>0,08; 0,45</t>
+          <t>0,08; 0,4</t>
         </is>
       </c>
       <c r="H17" s="2" t="inlineStr">
@@ -1375,12 +1375,12 @@
       </c>
       <c r="I17" s="2" t="inlineStr">
         <is>
-          <t>0,17; 0,46</t>
+          <t>0,22; 0,63</t>
         </is>
       </c>
       <c r="J17" s="2" t="inlineStr">
         <is>
-          <t>0,24; 0,69</t>
+          <t>0,25; 0,69</t>
         </is>
       </c>
       <c r="K17" s="2" t="inlineStr">
@@ -1402,7 +1402,7 @@
       </c>
       <c r="C18" s="2" t="inlineStr">
         <is>
-          <t>2,01</t>
+          <t>2,14</t>
         </is>
       </c>
       <c r="D18" s="2" t="inlineStr">
@@ -1417,7 +1417,7 @@
       </c>
       <c r="F18" s="2" t="inlineStr">
         <is>
-          <t>1,46</t>
+          <t>1,37</t>
         </is>
       </c>
       <c r="G18" s="2" t="inlineStr">
@@ -1432,7 +1432,7 @@
       </c>
       <c r="I18" s="2" t="inlineStr">
         <is>
-          <t>1,71</t>
+          <t>1,74</t>
         </is>
       </c>
       <c r="J18" s="2" t="inlineStr">
@@ -1455,12 +1455,12 @@
       </c>
       <c r="C19" s="2" t="inlineStr">
         <is>
-          <t>1,79; 2,29</t>
+          <t>1,87; 2,46</t>
         </is>
       </c>
       <c r="D19" s="2" t="inlineStr">
         <is>
-          <t>2,05; 3,46</t>
+          <t>1,97; 3,47</t>
         </is>
       </c>
       <c r="E19" s="2" t="inlineStr">
@@ -1470,12 +1470,12 @@
       </c>
       <c r="F19" s="2" t="inlineStr">
         <is>
-          <t>1,29; 1,66</t>
+          <t>1,16; 1,58</t>
         </is>
       </c>
       <c r="G19" s="2" t="inlineStr">
         <is>
-          <t>1,25; 2,01</t>
+          <t>1,23; 1,97</t>
         </is>
       </c>
       <c r="H19" s="2" t="inlineStr">
@@ -1485,12 +1485,12 @@
       </c>
       <c r="I19" s="2" t="inlineStr">
         <is>
-          <t>1,56; 1,87</t>
+          <t>1,56; 1,93</t>
         </is>
       </c>
       <c r="J19" s="2" t="inlineStr">
         <is>
-          <t>1,86; 2,62</t>
+          <t>1,9; 2,64</t>
         </is>
       </c>
       <c r="K19" s="2" t="inlineStr">

--- a/data/trans_orig/CANT_TABACO-Edad-trans_orig.xlsx
+++ b/data/trans_orig/CANT_TABACO-Edad-trans_orig.xlsx
@@ -562,47 +562,47 @@
       <c r="B2" s="2" t="n"/>
       <c r="C2" s="3" t="inlineStr">
         <is>
+          <t>Andalucia</t>
+        </is>
+      </c>
+      <c r="D2" s="3" t="inlineStr">
+        <is>
+          <t>C.Valenciana</t>
+        </is>
+      </c>
+      <c r="E2" s="3" t="inlineStr">
+        <is>
           <t>País Vasco</t>
         </is>
       </c>
-      <c r="D2" s="3" t="inlineStr">
+      <c r="F2" s="3" t="inlineStr">
         <is>
           <t>Andalucia</t>
         </is>
       </c>
-      <c r="E2" s="3" t="inlineStr">
+      <c r="G2" s="3" t="inlineStr">
         <is>
           <t>C.Valenciana</t>
         </is>
       </c>
-      <c r="F2" s="3" t="inlineStr">
+      <c r="H2" s="3" t="inlineStr">
         <is>
           <t>País Vasco</t>
         </is>
       </c>
-      <c r="G2" s="3" t="inlineStr">
+      <c r="I2" s="3" t="inlineStr">
         <is>
           <t>Andalucia</t>
         </is>
       </c>
-      <c r="H2" s="3" t="inlineStr">
+      <c r="J2" s="3" t="inlineStr">
         <is>
           <t>C.Valenciana</t>
         </is>
       </c>
-      <c r="I2" s="3" t="inlineStr">
+      <c r="K2" s="3" t="inlineStr">
         <is>
           <t>País Vasco</t>
-        </is>
-      </c>
-      <c r="J2" s="3" t="inlineStr">
-        <is>
-          <t>Andalucia</t>
-        </is>
-      </c>
-      <c r="K2" s="3" t="inlineStr">
-        <is>
-          <t>C.Valenciana</t>
         </is>
       </c>
     </row>
@@ -632,47 +632,47 @@
       </c>
       <c r="C4" s="2" t="inlineStr">
         <is>
+          <t>1,73</t>
+        </is>
+      </c>
+      <c r="D4" s="2" t="inlineStr">
+        <is>
+          <t>1,34</t>
+        </is>
+      </c>
+      <c r="E4" s="2" t="inlineStr">
+        <is>
           <t>0,95</t>
         </is>
       </c>
-      <c r="D4" s="2" t="inlineStr">
-        <is>
-          <t>1,67</t>
-        </is>
-      </c>
-      <c r="E4" s="2" t="inlineStr">
-        <is>
-          <t>1,34</t>
-        </is>
-      </c>
       <c r="F4" s="2" t="inlineStr">
         <is>
+          <t>1,39</t>
+        </is>
+      </c>
+      <c r="G4" s="2" t="inlineStr">
+        <is>
+          <t>0,68</t>
+        </is>
+      </c>
+      <c r="H4" s="2" t="inlineStr">
+        <is>
           <t>1,13</t>
         </is>
       </c>
-      <c r="G4" s="2" t="inlineStr">
-        <is>
-          <t>1,33</t>
-        </is>
-      </c>
-      <c r="H4" s="2" t="inlineStr">
-        <is>
-          <t>0,68</t>
-        </is>
-      </c>
       <c r="I4" s="2" t="inlineStr">
         <is>
+          <t>1,57</t>
+        </is>
+      </c>
+      <c r="J4" s="2" t="inlineStr">
+        <is>
+          <t>1,01</t>
+        </is>
+      </c>
+      <c r="K4" s="2" t="inlineStr">
+        <is>
           <t>1,04</t>
-        </is>
-      </c>
-      <c r="J4" s="2" t="inlineStr">
-        <is>
-          <t>1,52</t>
-        </is>
-      </c>
-      <c r="K4" s="2" t="inlineStr">
-        <is>
-          <t>1,01</t>
         </is>
       </c>
     </row>
@@ -685,47 +685,47 @@
       </c>
       <c r="C5" s="2" t="inlineStr">
         <is>
+          <t>1,05; 2,83</t>
+        </is>
+      </c>
+      <c r="D5" s="2" t="inlineStr">
+        <is>
+          <t>0,91; 1,89</t>
+        </is>
+      </c>
+      <c r="E5" s="2" t="inlineStr">
+        <is>
           <t>0,54; 1,72</t>
         </is>
       </c>
-      <c r="D5" s="2" t="inlineStr">
-        <is>
-          <t>0,98; 2,74</t>
-        </is>
-      </c>
-      <c r="E5" s="2" t="inlineStr">
-        <is>
-          <t>0,91; 1,89</t>
-        </is>
-      </c>
       <c r="F5" s="2" t="inlineStr">
         <is>
+          <t>0,79; 2,6</t>
+        </is>
+      </c>
+      <c r="G5" s="2" t="inlineStr">
+        <is>
+          <t>0,43; 1,08</t>
+        </is>
+      </c>
+      <c r="H5" s="2" t="inlineStr">
+        <is>
           <t>0,57; 2,46</t>
         </is>
       </c>
-      <c r="G5" s="2" t="inlineStr">
-        <is>
-          <t>0,74; 2,6</t>
-        </is>
-      </c>
-      <c r="H5" s="2" t="inlineStr">
-        <is>
-          <t>0,43; 1,08</t>
-        </is>
-      </c>
       <c r="I5" s="2" t="inlineStr">
         <is>
+          <t>1,08; 2,31</t>
+        </is>
+      </c>
+      <c r="J5" s="2" t="inlineStr">
+        <is>
+          <t>0,77; 1,32</t>
+        </is>
+      </c>
+      <c r="K5" s="2" t="inlineStr">
+        <is>
           <t>0,64; 1,67</t>
-        </is>
-      </c>
-      <c r="J5" s="2" t="inlineStr">
-        <is>
-          <t>0,99; 2,28</t>
-        </is>
-      </c>
-      <c r="K5" s="2" t="inlineStr">
-        <is>
-          <t>0,77; 1,32</t>
         </is>
       </c>
     </row>
@@ -742,47 +742,47 @@
       </c>
       <c r="C6" s="2" t="inlineStr">
         <is>
+          <t>3,82</t>
+        </is>
+      </c>
+      <c r="D6" s="2" t="inlineStr">
+        <is>
+          <t>2,69</t>
+        </is>
+      </c>
+      <c r="E6" s="2" t="inlineStr">
+        <is>
           <t>1,3</t>
         </is>
       </c>
-      <c r="D6" s="2" t="inlineStr">
-        <is>
-          <t>3,91</t>
-        </is>
-      </c>
-      <c r="E6" s="2" t="inlineStr">
-        <is>
-          <t>2,69</t>
-        </is>
-      </c>
       <c r="F6" s="2" t="inlineStr">
         <is>
+          <t>2,03</t>
+        </is>
+      </c>
+      <c r="G6" s="2" t="inlineStr">
+        <is>
+          <t>1,08</t>
+        </is>
+      </c>
+      <c r="H6" s="2" t="inlineStr">
+        <is>
           <t>0,92</t>
         </is>
       </c>
-      <c r="G6" s="2" t="inlineStr">
-        <is>
-          <t>1,73</t>
-        </is>
-      </c>
-      <c r="H6" s="2" t="inlineStr">
-        <is>
-          <t>1,08</t>
-        </is>
-      </c>
       <c r="I6" s="2" t="inlineStr">
         <is>
+          <t>2,89</t>
+        </is>
+      </c>
+      <c r="J6" s="2" t="inlineStr">
+        <is>
+          <t>1,82</t>
+        </is>
+      </c>
+      <c r="K6" s="2" t="inlineStr">
+        <is>
           <t>1,11</t>
-        </is>
-      </c>
-      <c r="J6" s="2" t="inlineStr">
-        <is>
-          <t>2,65</t>
-        </is>
-      </c>
-      <c r="K6" s="2" t="inlineStr">
-        <is>
-          <t>1,82</t>
         </is>
       </c>
     </row>
@@ -795,47 +795,47 @@
       </c>
       <c r="C7" s="2" t="inlineStr">
         <is>
+          <t>2,78; 5,24</t>
+        </is>
+      </c>
+      <c r="D7" s="2" t="inlineStr">
+        <is>
+          <t>2,07; 3,44</t>
+        </is>
+      </c>
+      <c r="E7" s="2" t="inlineStr">
+        <is>
           <t>0,8; 2,28</t>
         </is>
       </c>
-      <c r="D7" s="2" t="inlineStr">
-        <is>
-          <t>2,82; 5,33</t>
-        </is>
-      </c>
-      <c r="E7" s="2" t="inlineStr">
-        <is>
-          <t>2,07; 3,44</t>
-        </is>
-      </c>
       <c r="F7" s="2" t="inlineStr">
         <is>
+          <t>1,51; 2,73</t>
+        </is>
+      </c>
+      <c r="G7" s="2" t="inlineStr">
+        <is>
+          <t>0,78; 1,51</t>
+        </is>
+      </c>
+      <c r="H7" s="2" t="inlineStr">
+        <is>
           <t>0,54; 1,5</t>
         </is>
       </c>
-      <c r="G7" s="2" t="inlineStr">
-        <is>
-          <t>0,82; 2,55</t>
-        </is>
-      </c>
-      <c r="H7" s="2" t="inlineStr">
-        <is>
-          <t>0,78; 1,51</t>
-        </is>
-      </c>
       <c r="I7" s="2" t="inlineStr">
         <is>
+          <t>2,32; 3,6</t>
+        </is>
+      </c>
+      <c r="J7" s="2" t="inlineStr">
+        <is>
+          <t>1,48; 2,23</t>
+        </is>
+      </c>
+      <c r="K7" s="2" t="inlineStr">
+        <is>
           <t>0,77; 1,61</t>
-        </is>
-      </c>
-      <c r="J7" s="2" t="inlineStr">
-        <is>
-          <t>1,73; 3,43</t>
-        </is>
-      </c>
-      <c r="K7" s="2" t="inlineStr">
-        <is>
-          <t>1,48; 2,23</t>
         </is>
       </c>
     </row>
@@ -852,47 +852,47 @@
       </c>
       <c r="C8" s="2" t="inlineStr">
         <is>
+          <t>3,54</t>
+        </is>
+      </c>
+      <c r="D8" s="2" t="inlineStr">
+        <is>
+          <t>3,32</t>
+        </is>
+      </c>
+      <c r="E8" s="2" t="inlineStr">
+        <is>
           <t>3,13</t>
         </is>
       </c>
-      <c r="D8" s="2" t="inlineStr">
-        <is>
-          <t>3,69</t>
-        </is>
-      </c>
-      <c r="E8" s="2" t="inlineStr">
-        <is>
-          <t>3,32</t>
-        </is>
-      </c>
       <c r="F8" s="2" t="inlineStr">
         <is>
+          <t>2,31</t>
+        </is>
+      </c>
+      <c r="G8" s="2" t="inlineStr">
+        <is>
+          <t>1,94</t>
+        </is>
+      </c>
+      <c r="H8" s="2" t="inlineStr">
+        <is>
           <t>1,75</t>
         </is>
       </c>
-      <c r="G8" s="2" t="inlineStr">
-        <is>
-          <t>2,44</t>
-        </is>
-      </c>
-      <c r="H8" s="2" t="inlineStr">
-        <is>
-          <t>1,94</t>
-        </is>
-      </c>
       <c r="I8" s="2" t="inlineStr">
         <is>
+          <t>2,92</t>
+        </is>
+      </c>
+      <c r="J8" s="2" t="inlineStr">
+        <is>
+          <t>2,63</t>
+        </is>
+      </c>
+      <c r="K8" s="2" t="inlineStr">
+        <is>
           <t>2,45</t>
-        </is>
-      </c>
-      <c r="J8" s="2" t="inlineStr">
-        <is>
-          <t>3,05</t>
-        </is>
-      </c>
-      <c r="K8" s="2" t="inlineStr">
-        <is>
-          <t>2,63</t>
         </is>
       </c>
     </row>
@@ -905,47 +905,47 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
+          <t>2,75; 4,66</t>
+        </is>
+      </c>
+      <c r="D9" s="2" t="inlineStr">
+        <is>
+          <t>2,69; 4,11</t>
+        </is>
+      </c>
+      <c r="E9" s="2" t="inlineStr">
+        <is>
           <t>2,38; 4,1</t>
         </is>
       </c>
-      <c r="D9" s="2" t="inlineStr">
-        <is>
-          <t>2,85; 4,94</t>
-        </is>
-      </c>
-      <c r="E9" s="2" t="inlineStr">
-        <is>
-          <t>2,69; 4,11</t>
-        </is>
-      </c>
       <c r="F9" s="2" t="inlineStr">
         <is>
+          <t>1,88; 2,82</t>
+        </is>
+      </c>
+      <c r="G9" s="2" t="inlineStr">
+        <is>
+          <t>1,52; 2,52</t>
+        </is>
+      </c>
+      <c r="H9" s="2" t="inlineStr">
+        <is>
           <t>1,26; 2,36</t>
         </is>
       </c>
-      <c r="G9" s="2" t="inlineStr">
-        <is>
-          <t>1,97; 2,97</t>
-        </is>
-      </c>
-      <c r="H9" s="2" t="inlineStr">
-        <is>
-          <t>1,52; 2,52</t>
-        </is>
-      </c>
       <c r="I9" s="2" t="inlineStr">
         <is>
+          <t>2,47; 3,52</t>
+        </is>
+      </c>
+      <c r="J9" s="2" t="inlineStr">
+        <is>
+          <t>2,24; 3,05</t>
+        </is>
+      </c>
+      <c r="K9" s="2" t="inlineStr">
+        <is>
           <t>1,98; 3,01</t>
-        </is>
-      </c>
-      <c r="J9" s="2" t="inlineStr">
-        <is>
-          <t>2,58; 3,7</t>
-        </is>
-      </c>
-      <c r="K9" s="2" t="inlineStr">
-        <is>
-          <t>2,24; 3,05</t>
         </is>
       </c>
     </row>
@@ -962,47 +962,47 @@
       </c>
       <c r="C10" s="2" t="inlineStr">
         <is>
+          <t>3,73</t>
+        </is>
+      </c>
+      <c r="D10" s="2" t="inlineStr">
+        <is>
+          <t>3,35</t>
+        </is>
+      </c>
+      <c r="E10" s="2" t="inlineStr">
+        <is>
           <t>3,48</t>
         </is>
       </c>
-      <c r="D10" s="2" t="inlineStr">
-        <is>
-          <t>2,28</t>
-        </is>
-      </c>
-      <c r="E10" s="2" t="inlineStr">
-        <is>
-          <t>3,35</t>
-        </is>
-      </c>
       <c r="F10" s="2" t="inlineStr">
         <is>
+          <t>2,52</t>
+        </is>
+      </c>
+      <c r="G10" s="2" t="inlineStr">
+        <is>
+          <t>2,7</t>
+        </is>
+      </c>
+      <c r="H10" s="2" t="inlineStr">
+        <is>
           <t>1,91</t>
         </is>
       </c>
-      <c r="G10" s="2" t="inlineStr">
-        <is>
-          <t>2,56</t>
-        </is>
-      </c>
-      <c r="H10" s="2" t="inlineStr">
+      <c r="I10" s="2" t="inlineStr">
+        <is>
+          <t>3,11</t>
+        </is>
+      </c>
+      <c r="J10" s="2" t="inlineStr">
+        <is>
+          <t>3,03</t>
+        </is>
+      </c>
+      <c r="K10" s="2" t="inlineStr">
         <is>
           <t>2,7</t>
-        </is>
-      </c>
-      <c r="I10" s="2" t="inlineStr">
-        <is>
-          <t>2,7</t>
-        </is>
-      </c>
-      <c r="J10" s="2" t="inlineStr">
-        <is>
-          <t>2,39</t>
-        </is>
-      </c>
-      <c r="K10" s="2" t="inlineStr">
-        <is>
-          <t>3,03</t>
         </is>
       </c>
     </row>
@@ -1015,47 +1015,47 @@
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
+          <t>3,06; 4,51</t>
+        </is>
+      </c>
+      <c r="D11" s="2" t="inlineStr">
+        <is>
+          <t>2,78; 4,05</t>
+        </is>
+      </c>
+      <c r="E11" s="2" t="inlineStr">
+        <is>
           <t>2,64; 4,43</t>
         </is>
       </c>
-      <c r="D11" s="2" t="inlineStr">
-        <is>
-          <t>0,83; 3,96</t>
-        </is>
-      </c>
-      <c r="E11" s="2" t="inlineStr">
-        <is>
-          <t>2,78; 4,05</t>
-        </is>
-      </c>
       <c r="F11" s="2" t="inlineStr">
         <is>
+          <t>2,11; 2,98</t>
+        </is>
+      </c>
+      <c r="G11" s="2" t="inlineStr">
+        <is>
+          <t>2,19; 3,26</t>
+        </is>
+      </c>
+      <c r="H11" s="2" t="inlineStr">
+        <is>
           <t>1,48; 2,48</t>
         </is>
       </c>
-      <c r="G11" s="2" t="inlineStr">
-        <is>
-          <t>2,14; 3,0</t>
-        </is>
-      </c>
-      <c r="H11" s="2" t="inlineStr">
-        <is>
-          <t>2,19; 3,26</t>
-        </is>
-      </c>
       <c r="I11" s="2" t="inlineStr">
         <is>
+          <t>2,69; 3,53</t>
+        </is>
+      </c>
+      <c r="J11" s="2" t="inlineStr">
+        <is>
+          <t>2,62; 3,39</t>
+        </is>
+      </c>
+      <c r="K11" s="2" t="inlineStr">
+        <is>
           <t>2,21; 3,26</t>
-        </is>
-      </c>
-      <c r="J11" s="2" t="inlineStr">
-        <is>
-          <t>1,05; 3,27</t>
-        </is>
-      </c>
-      <c r="K11" s="2" t="inlineStr">
-        <is>
-          <t>2,62; 3,39</t>
         </is>
       </c>
     </row>
@@ -1072,47 +1072,47 @@
       </c>
       <c r="C12" s="2" t="inlineStr">
         <is>
+          <t>4,73</t>
+        </is>
+      </c>
+      <c r="D12" s="2" t="inlineStr">
+        <is>
+          <t>3,32</t>
+        </is>
+      </c>
+      <c r="E12" s="2" t="inlineStr">
+        <is>
           <t>2,66</t>
         </is>
       </c>
-      <c r="D12" s="2" t="inlineStr">
-        <is>
-          <t>4,86</t>
-        </is>
-      </c>
-      <c r="E12" s="2" t="inlineStr">
-        <is>
-          <t>3,32</t>
-        </is>
-      </c>
       <c r="F12" s="2" t="inlineStr">
         <is>
+          <t>2,56</t>
+        </is>
+      </c>
+      <c r="G12" s="2" t="inlineStr">
+        <is>
+          <t>2,24</t>
+        </is>
+      </c>
+      <c r="H12" s="2" t="inlineStr">
+        <is>
           <t>1,88</t>
         </is>
       </c>
-      <c r="G12" s="2" t="inlineStr">
-        <is>
-          <t>2,58</t>
-        </is>
-      </c>
-      <c r="H12" s="2" t="inlineStr">
-        <is>
-          <t>2,24</t>
-        </is>
-      </c>
       <c r="I12" s="2" t="inlineStr">
         <is>
+          <t>3,66</t>
+        </is>
+      </c>
+      <c r="J12" s="2" t="inlineStr">
+        <is>
+          <t>2,76</t>
+        </is>
+      </c>
+      <c r="K12" s="2" t="inlineStr">
+        <is>
           <t>2,25</t>
-        </is>
-      </c>
-      <c r="J12" s="2" t="inlineStr">
-        <is>
-          <t>3,75</t>
-        </is>
-      </c>
-      <c r="K12" s="2" t="inlineStr">
-        <is>
-          <t>2,76</t>
         </is>
       </c>
     </row>
@@ -1125,47 +1125,47 @@
       </c>
       <c r="C13" s="2" t="inlineStr">
         <is>
+          <t>4,03; 5,64</t>
+        </is>
+      </c>
+      <c r="D13" s="2" t="inlineStr">
+        <is>
+          <t>2,53; 4,13</t>
+        </is>
+      </c>
+      <c r="E13" s="2" t="inlineStr">
+        <is>
           <t>1,99; 3,67</t>
         </is>
       </c>
-      <c r="D13" s="2" t="inlineStr">
-        <is>
-          <t>4,14; 5,87</t>
-        </is>
-      </c>
-      <c r="E13" s="2" t="inlineStr">
-        <is>
-          <t>2,53; 4,13</t>
-        </is>
-      </c>
       <c r="F13" s="2" t="inlineStr">
         <is>
+          <t>2,17; 3,07</t>
+        </is>
+      </c>
+      <c r="G13" s="2" t="inlineStr">
+        <is>
+          <t>1,75; 2,78</t>
+        </is>
+      </c>
+      <c r="H13" s="2" t="inlineStr">
+        <is>
           <t>1,32; 2,63</t>
         </is>
       </c>
-      <c r="G13" s="2" t="inlineStr">
-        <is>
-          <t>2,17; 3,08</t>
-        </is>
-      </c>
-      <c r="H13" s="2" t="inlineStr">
-        <is>
-          <t>1,75; 2,78</t>
-        </is>
-      </c>
       <c r="I13" s="2" t="inlineStr">
         <is>
+          <t>3,2; 4,15</t>
+        </is>
+      </c>
+      <c r="J13" s="2" t="inlineStr">
+        <is>
+          <t>2,32; 3,22</t>
+        </is>
+      </c>
+      <c r="K13" s="2" t="inlineStr">
+        <is>
           <t>1,84; 2,84</t>
-        </is>
-      </c>
-      <c r="J13" s="2" t="inlineStr">
-        <is>
-          <t>3,28; 4,31</t>
-        </is>
-      </c>
-      <c r="K13" s="2" t="inlineStr">
-        <is>
-          <t>2,32; 3,22</t>
         </is>
       </c>
     </row>
@@ -1182,47 +1182,47 @@
       </c>
       <c r="C14" s="2" t="inlineStr">
         <is>
+          <t>2,73</t>
+        </is>
+      </c>
+      <c r="D14" s="2" t="inlineStr">
+        <is>
+          <t>1,81</t>
+        </is>
+      </c>
+      <c r="E14" s="2" t="inlineStr">
+        <is>
           <t>0,94</t>
         </is>
       </c>
-      <c r="D14" s="2" t="inlineStr">
-        <is>
-          <t>2,74</t>
-        </is>
-      </c>
-      <c r="E14" s="2" t="inlineStr">
-        <is>
-          <t>1,81</t>
-        </is>
-      </c>
       <c r="F14" s="2" t="inlineStr">
         <is>
+          <t>1,47</t>
+        </is>
+      </c>
+      <c r="G14" s="2" t="inlineStr">
+        <is>
+          <t>1,23</t>
+        </is>
+      </c>
+      <c r="H14" s="2" t="inlineStr">
+        <is>
           <t>1,41</t>
         </is>
       </c>
-      <c r="G14" s="2" t="inlineStr">
-        <is>
-          <t>0,8</t>
-        </is>
-      </c>
-      <c r="H14" s="2" t="inlineStr">
-        <is>
-          <t>1,23</t>
-        </is>
-      </c>
       <c r="I14" s="2" t="inlineStr">
         <is>
+          <t>2,05</t>
+        </is>
+      </c>
+      <c r="J14" s="2" t="inlineStr">
+        <is>
+          <t>1,52</t>
+        </is>
+      </c>
+      <c r="K14" s="2" t="inlineStr">
+        <is>
           <t>1,19</t>
-        </is>
-      </c>
-      <c r="J14" s="2" t="inlineStr">
-        <is>
-          <t>1,41</t>
-        </is>
-      </c>
-      <c r="K14" s="2" t="inlineStr">
-        <is>
-          <t>1,52</t>
         </is>
       </c>
     </row>
@@ -1235,47 +1235,47 @@
       </c>
       <c r="C15" s="2" t="inlineStr">
         <is>
+          <t>1,9; 3,98</t>
+        </is>
+      </c>
+      <c r="D15" s="2" t="inlineStr">
+        <is>
+          <t>1,39; 2,34</t>
+        </is>
+      </c>
+      <c r="E15" s="2" t="inlineStr">
+        <is>
           <t>0,63; 1,39</t>
         </is>
       </c>
-      <c r="D15" s="2" t="inlineStr">
-        <is>
-          <t>1,93; 3,98</t>
-        </is>
-      </c>
-      <c r="E15" s="2" t="inlineStr">
-        <is>
-          <t>1,39; 2,34</t>
-        </is>
-      </c>
       <c r="F15" s="2" t="inlineStr">
         <is>
+          <t>1,11; 1,9</t>
+        </is>
+      </c>
+      <c r="G15" s="2" t="inlineStr">
+        <is>
+          <t>0,86; 1,71</t>
+        </is>
+      </c>
+      <c r="H15" s="2" t="inlineStr">
+        <is>
           <t>0,99; 1,88</t>
         </is>
       </c>
-      <c r="G15" s="2" t="inlineStr">
-        <is>
-          <t>0,2; 1,56</t>
-        </is>
-      </c>
-      <c r="H15" s="2" t="inlineStr">
-        <is>
-          <t>0,86; 1,71</t>
-        </is>
-      </c>
       <c r="I15" s="2" t="inlineStr">
         <is>
+          <t>1,64; 2,68</t>
+        </is>
+      </c>
+      <c r="J15" s="2" t="inlineStr">
+        <is>
+          <t>1,24; 1,86</t>
+        </is>
+      </c>
+      <c r="K15" s="2" t="inlineStr">
+        <is>
           <t>0,92; 1,52</t>
-        </is>
-      </c>
-      <c r="J15" s="2" t="inlineStr">
-        <is>
-          <t>0,57; 2,2</t>
-        </is>
-      </c>
-      <c r="K15" s="2" t="inlineStr">
-        <is>
-          <t>1,24; 1,86</t>
         </is>
       </c>
     </row>
@@ -1292,47 +1292,47 @@
       </c>
       <c r="C16" s="2" t="inlineStr">
         <is>
+          <t>0,76</t>
+        </is>
+      </c>
+      <c r="D16" s="2" t="inlineStr">
+        <is>
+          <t>0,33</t>
+        </is>
+      </c>
+      <c r="E16" s="2" t="inlineStr">
+        <is>
           <t>0,58</t>
         </is>
       </c>
-      <c r="D16" s="2" t="inlineStr">
-        <is>
-          <t>0,78</t>
-        </is>
-      </c>
-      <c r="E16" s="2" t="inlineStr">
-        <is>
-          <t>0,33</t>
-        </is>
-      </c>
       <c r="F16" s="2" t="inlineStr">
         <is>
+          <t>0,18</t>
+        </is>
+      </c>
+      <c r="G16" s="2" t="inlineStr">
+        <is>
+          <t>0,21</t>
+        </is>
+      </c>
+      <c r="H16" s="2" t="inlineStr">
+        <is>
           <t>0,23</t>
         </is>
       </c>
-      <c r="G16" s="2" t="inlineStr">
-        <is>
-          <t>0,18</t>
-        </is>
-      </c>
-      <c r="H16" s="2" t="inlineStr">
-        <is>
-          <t>0,21</t>
-        </is>
-      </c>
       <c r="I16" s="2" t="inlineStr">
         <is>
+          <t>0,41</t>
+        </is>
+      </c>
+      <c r="J16" s="2" t="inlineStr">
+        <is>
+          <t>0,26</t>
+        </is>
+      </c>
+      <c r="K16" s="2" t="inlineStr">
+        <is>
           <t>0,36</t>
-        </is>
-      </c>
-      <c r="J16" s="2" t="inlineStr">
-        <is>
-          <t>0,42</t>
-        </is>
-      </c>
-      <c r="K16" s="2" t="inlineStr">
-        <is>
-          <t>0,26</t>
         </is>
       </c>
     </row>
@@ -1345,47 +1345,47 @@
       </c>
       <c r="C17" s="2" t="inlineStr">
         <is>
+          <t>0,39; 1,37</t>
+        </is>
+      </c>
+      <c r="D17" s="2" t="inlineStr">
+        <is>
+          <t>0,18; 0,6</t>
+        </is>
+      </c>
+      <c r="E17" s="2" t="inlineStr">
+        <is>
           <t>0,33; 0,99</t>
         </is>
       </c>
-      <c r="D17" s="2" t="inlineStr">
-        <is>
-          <t>0,39; 1,4</t>
-        </is>
-      </c>
-      <c r="E17" s="2" t="inlineStr">
-        <is>
-          <t>0,18; 0,6</t>
-        </is>
-      </c>
       <c r="F17" s="2" t="inlineStr">
         <is>
+          <t>0,07; 0,4</t>
+        </is>
+      </c>
+      <c r="G17" s="2" t="inlineStr">
+        <is>
+          <t>0,1; 0,44</t>
+        </is>
+      </c>
+      <c r="H17" s="2" t="inlineStr">
+        <is>
           <t>0,08; 0,63</t>
         </is>
       </c>
-      <c r="G17" s="2" t="inlineStr">
-        <is>
-          <t>0,08; 0,4</t>
-        </is>
-      </c>
-      <c r="H17" s="2" t="inlineStr">
-        <is>
-          <t>0,1; 0,44</t>
-        </is>
-      </c>
       <c r="I17" s="2" t="inlineStr">
         <is>
+          <t>0,25; 0,67</t>
+        </is>
+      </c>
+      <c r="J17" s="2" t="inlineStr">
+        <is>
+          <t>0,16; 0,41</t>
+        </is>
+      </c>
+      <c r="K17" s="2" t="inlineStr">
+        <is>
           <t>0,22; 0,63</t>
-        </is>
-      </c>
-      <c r="J17" s="2" t="inlineStr">
-        <is>
-          <t>0,25; 0,69</t>
-        </is>
-      </c>
-      <c r="K17" s="2" t="inlineStr">
-        <is>
-          <t>0,16; 0,41</t>
         </is>
       </c>
     </row>
@@ -1402,47 +1402,47 @@
       </c>
       <c r="C18" s="2" t="inlineStr">
         <is>
+          <t>3,3</t>
+        </is>
+      </c>
+      <c r="D18" s="2" t="inlineStr">
+        <is>
+          <t>2,53</t>
+        </is>
+      </c>
+      <c r="E18" s="2" t="inlineStr">
+        <is>
           <t>2,14</t>
         </is>
       </c>
-      <c r="D18" s="2" t="inlineStr">
-        <is>
-          <t>2,95</t>
-        </is>
-      </c>
-      <c r="E18" s="2" t="inlineStr">
-        <is>
-          <t>2,53</t>
-        </is>
-      </c>
       <c r="F18" s="2" t="inlineStr">
         <is>
+          <t>1,91</t>
+        </is>
+      </c>
+      <c r="G18" s="2" t="inlineStr">
+        <is>
+          <t>1,55</t>
+        </is>
+      </c>
+      <c r="H18" s="2" t="inlineStr">
+        <is>
           <t>1,37</t>
         </is>
       </c>
-      <c r="G18" s="2" t="inlineStr">
-        <is>
-          <t>1,72</t>
-        </is>
-      </c>
-      <c r="H18" s="2" t="inlineStr">
-        <is>
-          <t>1,55</t>
-        </is>
-      </c>
       <c r="I18" s="2" t="inlineStr">
         <is>
+          <t>2,58</t>
+        </is>
+      </c>
+      <c r="J18" s="2" t="inlineStr">
+        <is>
+          <t>2,02</t>
+        </is>
+      </c>
+      <c r="K18" s="2" t="inlineStr">
+        <is>
           <t>1,74</t>
-        </is>
-      </c>
-      <c r="J18" s="2" t="inlineStr">
-        <is>
-          <t>2,32</t>
-        </is>
-      </c>
-      <c r="K18" s="2" t="inlineStr">
-        <is>
-          <t>2,02</t>
         </is>
       </c>
     </row>
@@ -1455,47 +1455,47 @@
       </c>
       <c r="C19" s="2" t="inlineStr">
         <is>
+          <t>2,93; 3,66</t>
+        </is>
+      </c>
+      <c r="D19" s="2" t="inlineStr">
+        <is>
+          <t>2,29; 2,77</t>
+        </is>
+      </c>
+      <c r="E19" s="2" t="inlineStr">
+        <is>
           <t>1,87; 2,46</t>
         </is>
       </c>
-      <c r="D19" s="2" t="inlineStr">
-        <is>
-          <t>1,97; 3,47</t>
-        </is>
-      </c>
-      <c r="E19" s="2" t="inlineStr">
-        <is>
-          <t>2,29; 2,77</t>
-        </is>
-      </c>
       <c r="F19" s="2" t="inlineStr">
         <is>
+          <t>1,74; 2,11</t>
+        </is>
+      </c>
+      <c r="G19" s="2" t="inlineStr">
+        <is>
+          <t>1,38; 1,72</t>
+        </is>
+      </c>
+      <c r="H19" s="2" t="inlineStr">
+        <is>
           <t>1,16; 1,58</t>
         </is>
       </c>
-      <c r="G19" s="2" t="inlineStr">
-        <is>
-          <t>1,23; 1,97</t>
-        </is>
-      </c>
-      <c r="H19" s="2" t="inlineStr">
-        <is>
-          <t>1,38; 1,72</t>
-        </is>
-      </c>
       <c r="I19" s="2" t="inlineStr">
         <is>
+          <t>2,4; 2,8</t>
+        </is>
+      </c>
+      <c r="J19" s="2" t="inlineStr">
+        <is>
+          <t>1,87; 2,18</t>
+        </is>
+      </c>
+      <c r="K19" s="2" t="inlineStr">
+        <is>
           <t>1,56; 1,93</t>
-        </is>
-      </c>
-      <c r="J19" s="2" t="inlineStr">
-        <is>
-          <t>1,9; 2,64</t>
-        </is>
-      </c>
-      <c r="K19" s="2" t="inlineStr">
-        <is>
-          <t>1,87; 2,18</t>
         </is>
       </c>
     </row>
